--- a/Framework_MWC_Testing/data/TestData.xlsx
+++ b/Framework_MWC_Testing/data/TestData.xlsx
@@ -4,6 +4,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Register" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -397,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -448,25 +449,25 @@
       <c r="A4" t="str">
         <v>DN3</v>
       </c>
+      <c r="B4" t="str">
+        <v>anhduongpham</v>
+      </c>
       <c r="C4" t="str">
-        <v>anhduong@124</v>
+        <v>anhduong123</v>
       </c>
       <c r="D4" t="str">
-        <v>Vui lòng điền vào trường này.</v>
+        <v>anhduongpham</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
         <v>DN4</v>
       </c>
-      <c r="B5" t="str">
-        <v>anh</v>
-      </c>
       <c r="C5" t="str">
-        <v>anhduong@125</v>
+        <v>anhduong@124</v>
       </c>
       <c r="D5" t="str">
-        <v>Tên đăng nhập hoặc mật khẩu không đúng!</v>
+        <v>Vui lòng điền vào trường này.</v>
       </c>
     </row>
     <row r="6">
@@ -474,18 +475,305 @@
         <v>DN5</v>
       </c>
       <c r="B6" t="str">
+        <v>anhduongpham</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Vui lòng điền vào trường này.</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>DN6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>anh</v>
+      </c>
+      <c r="C7" t="str">
+        <v>anhduong@125</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Tên đăng nhập hoặc mật khẩu không đúng!</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>DN7</v>
+      </c>
+      <c r="B8" t="str">
         <v>Ánh Dương Phạm</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C8" t="str">
         <v>anhduong</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D8" t="str">
         <v>Tên đăng nhập hoặc mật khẩu không đúng!</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Testcase</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Username</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Password</v>
+      </c>
+      <c r="E1" t="str">
+        <v>PasswordConfirm</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Expected</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>DN1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>QuynhAnh123</v>
+      </c>
+      <c r="C2" t="str">
+        <v>0359694533</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Abcde12345</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Abcde12345</v>
+      </c>
+      <c r="F2" t="str">
+        <v>QuynhAnh123</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>DN2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>user_demo_2</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Abcde12345</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Abcde12345</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Vui lòng điền vào trường này.</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>DN3</v>
+      </c>
+      <c r="C4" t="str">
+        <v>0912345678</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Abcde12345</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Abcde12345</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Vui lòng điền vào trường này.</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>DN4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>user_demo_3</v>
+      </c>
+      <c r="C5" t="str">
+        <v>0912345678</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Abcde12345</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Vui lòng điền vào trường này.</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>DN5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>user_demo_4</v>
+      </c>
+      <c r="C6" t="str">
+        <v>0912345678</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Abcde12345</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Vui lòng điền vào trường này.</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>DN6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>user_demo_5</v>
+      </c>
+      <c r="C7" t="str">
+        <v>091</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Abcde12345</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Abcde12345</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Số điện thoại không đúng định dạng!</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>DN7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>user_demo_6</v>
+      </c>
+      <c r="C8" t="str">
+        <v>abc</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Abcde12345</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Abcde12345</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Số điện thoại không đúng định dạng!</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>DN8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>user_demo_7</v>
+      </c>
+      <c r="C9" t="str">
+        <v>03!</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Abcde12345</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Abcde12345</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Số điện thoại không đúng định dạng!</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>DN9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>user_demo_8</v>
+      </c>
+      <c r="C10" t="str">
+        <v>03 45216789</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Abcde12345</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Abcde12345</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Số điện thoại không đúng định dạng!</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>DN10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>user_demo_9</v>
+      </c>
+      <c r="C11" t="str">
+        <v>0912345678</v>
+      </c>
+      <c r="D11" t="str">
+        <v>123</v>
+      </c>
+      <c r="E11" t="str">
+        <v>123</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Mật khẩu phải lớn hơn 8 ký tự và nhỏ hơn 20 ký tự!</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>DN11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>user_demo_10</v>
+      </c>
+      <c r="C12" t="str">
+        <v>0912345679</v>
+      </c>
+      <c r="D12" t="str">
+        <v>12345678</v>
+      </c>
+      <c r="E12" t="str">
+        <v>123</v>
+      </c>
+      <c r="F12" t="str">
+        <v>mật khẩu không giống nhau</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>DN12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Ánh Dương Phạm</v>
+      </c>
+      <c r="C13" t="str">
+        <v>035214679</v>
+      </c>
+      <c r="D13" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="E13" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="F13" t="str">
+        <v>tài khoản đã tồn tại trong hệ thống</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Framework_MWC_Testing/data/TestData.xlsx
+++ b/Framework_MWC_Testing/data/TestData.xlsx
@@ -5,6 +5,9 @@
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Register" sheetId="2" r:id="rId2"/>
+    <sheet name="Search" sheetId="3" r:id="rId3"/>
+    <sheet name="Profile" sheetId="4" r:id="rId4"/>
+    <sheet name="Order" sheetId="5" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -545,7 +548,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>DN1</v>
+        <v>DK1</v>
       </c>
       <c r="B2" t="str">
         <v>QuynhAnh123</v>
@@ -565,7 +568,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>DN2</v>
+        <v>DK2</v>
       </c>
       <c r="B3" t="str">
         <v>user_demo_2</v>
@@ -582,7 +585,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>DN3</v>
+        <v>DK3</v>
       </c>
       <c r="C4" t="str">
         <v>0912345678</v>
@@ -599,7 +602,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>DN4</v>
+        <v>DK4</v>
       </c>
       <c r="B5" t="str">
         <v>user_demo_3</v>
@@ -616,7 +619,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>DN5</v>
+        <v>DK5</v>
       </c>
       <c r="B6" t="str">
         <v>user_demo_4</v>
@@ -633,7 +636,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>DN6</v>
+        <v>DK6</v>
       </c>
       <c r="B7" t="str">
         <v>user_demo_5</v>
@@ -653,7 +656,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>DN7</v>
+        <v>DK7</v>
       </c>
       <c r="B8" t="str">
         <v>user_demo_6</v>
@@ -673,7 +676,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>DN8</v>
+        <v>DK8</v>
       </c>
       <c r="B9" t="str">
         <v>user_demo_7</v>
@@ -693,7 +696,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>DN9</v>
+        <v>DK9</v>
       </c>
       <c r="B10" t="str">
         <v>user_demo_8</v>
@@ -713,7 +716,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>DN10</v>
+        <v>DK10</v>
       </c>
       <c r="B11" t="str">
         <v>user_demo_9</v>
@@ -733,7 +736,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>DN11</v>
+        <v>DK11</v>
       </c>
       <c r="B12" t="str">
         <v>user_demo_10</v>
@@ -753,7 +756,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>DN12</v>
+        <v>DK12</v>
       </c>
       <c r="B13" t="str">
         <v>Ánh Dương Phạm</v>
@@ -776,4 +779,982 @@
     <ignoredError numberStoredAsText="1" sqref="A1:F13"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Testcase</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Keyword</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Expected</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>TK1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Giày Sandal Nữ MWC E196 - Sandal Đế Đúc Nguyên Khối, Quai Ngang To Bản Kết Hợp Quai Dán Tiện Lợi, Cá Tính, Thoải Mái.</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Giày Sandal Nữ MWC E196 - Sandal Đế Đúc Nguyên Khối, Quai Ngang To Bản Kết Hợp Quai Dán Tiện Lợi, Cá Tính, Thoải Mái.</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>TK2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>E196</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Giày Sandal Nữ MWC E196 - Sandal Đế Đúc Nguyên Khối, Quai Ngang To Bản Kết Hợp Quai Dán Tiện Lợi, Cá Tính, Thoải Mái.</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>TK3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Giày</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Giày</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>TK4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>GIÀY</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Giày</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>TK5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Giay the thao nam</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Giày thể thao nam</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>TK6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Giay th</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Không tìm thấy sản phẩm</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>TK7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Giay!#$%</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Không tìm thấy sản phẩm</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>TK8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Màu đen</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Màu đen</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C9"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Testcase</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Username</v>
+      </c>
+      <c r="C1" t="str">
+        <v>FullName</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Email</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Gender</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Day</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Month</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Year</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Province</v>
+      </c>
+      <c r="K1" t="str">
+        <v>District</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Ward</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Address</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Expected</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>TT1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Ánh Dương Phạm</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Phạm Thị Ánh Dương</v>
+      </c>
+      <c r="D2" t="str">
+        <v>anh1@gmail.com</v>
+      </c>
+      <c r="E2" t="str">
+        <v>03321156789</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="G2" t="str">
+        <v>1</v>
+      </c>
+      <c r="H2" t="str">
+        <v>1</v>
+      </c>
+      <c r="I2" t="str">
+        <v>2000</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Hậu Giang</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Huyện Châu Thành</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Xã Đông Phước A</v>
+      </c>
+      <c r="M2" t="str">
+        <v>abc</v>
+      </c>
+      <c r="N2" t="str">
+        <v>Cập nhập tài khoản thành công!</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>TT2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Ánh Dương Phạm</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Phạm Thị Ánh Dương</v>
+      </c>
+      <c r="D3" t="str">
+        <v>anh1@gmail.com</v>
+      </c>
+      <c r="E3" t="str">
+        <v>03321156789</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="G3" t="str">
+        <v>10</v>
+      </c>
+      <c r="H3" t="str">
+        <v>10</v>
+      </c>
+      <c r="I3" t="str">
+        <v>2000</v>
+      </c>
+      <c r="J3" t="str">
+        <v>TP. Hồ Chí Minh</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Quận 1</v>
+      </c>
+      <c r="L3" t="str">
+        <v>Phường Bến Nghé</v>
+      </c>
+      <c r="M3" t="str">
+        <v>abc</v>
+      </c>
+      <c r="N3" t="str">
+        <v>Cập nhập tài khoản thành công!</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>TT3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Ánh Dương Phạm</v>
+      </c>
+      <c r="D4" t="str">
+        <v>anh1@gmail.com</v>
+      </c>
+      <c r="E4" t="str">
+        <v>03321156790</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="G4" t="str">
+        <v>11</v>
+      </c>
+      <c r="H4" t="str">
+        <v>11</v>
+      </c>
+      <c r="I4" t="str">
+        <v>2001</v>
+      </c>
+      <c r="J4" t="str">
+        <v>TP. Hồ Chí Minh</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Quận 2</v>
+      </c>
+      <c r="L4" t="str">
+        <v>Phường Bến Nghé</v>
+      </c>
+      <c r="M4" t="str">
+        <v>abc</v>
+      </c>
+      <c r="N4" t="str">
+        <v>Cập nhập tài khoản thành công!</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>TT4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Ánh Dương Phạm</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Phạm Thị Ánh Dương</v>
+      </c>
+      <c r="E5" t="str">
+        <v>03321156789</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Khác</v>
+      </c>
+      <c r="G5" t="str">
+        <v>2</v>
+      </c>
+      <c r="H5" t="str">
+        <v>2</v>
+      </c>
+      <c r="I5" t="str">
+        <v>2001</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Hậu Giang</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Huyện Châu Thành</v>
+      </c>
+      <c r="L5" t="str">
+        <v>Xã Đông Phước A</v>
+      </c>
+      <c r="M5" t="str">
+        <v>abc</v>
+      </c>
+      <c r="N5" t="str">
+        <v>Cập nhập tài khoản thành công!</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>TT5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Ánh Dương Phạm</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Phạm Thị Ánh Dương</v>
+      </c>
+      <c r="D6" t="str">
+        <v>anh1@gmail.com</v>
+      </c>
+      <c r="E6" t="str">
+        <v>03321156789</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="G6" t="str">
+        <v>2</v>
+      </c>
+      <c r="H6" t="str">
+        <v>2</v>
+      </c>
+      <c r="I6" t="str">
+        <v>2001</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Hậu Giang</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Huyện Châu Thành</v>
+      </c>
+      <c r="L6" t="str">
+        <v>Xã Đông Phước A</v>
+      </c>
+      <c r="N6" t="str">
+        <v>Cập nhập tài khoản thành công!</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>TT6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Ánh Dương Phạm</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Phạm Thị Ánh Dương</v>
+      </c>
+      <c r="D7" t="str">
+        <v>anh1@gmail.com</v>
+      </c>
+      <c r="E7" t="str">
+        <v>03321156789</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="G7" t="str">
+        <v>2</v>
+      </c>
+      <c r="H7" t="str">
+        <v>2</v>
+      </c>
+      <c r="I7" t="str">
+        <v>2001</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Chọn Tỉnh/Thành</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Chọn Quận/huyện</v>
+      </c>
+      <c r="L7" t="str">
+        <v>Chọn Xã/Phường</v>
+      </c>
+      <c r="N7" t="str">
+        <v>Cập nhập tài khoản thành công!</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>TT7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Ánh Dương Phạm</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Phạm Thị Ánh Dương</v>
+      </c>
+      <c r="D8" t="str">
+        <v>anh1@</v>
+      </c>
+      <c r="E8" t="str">
+        <v>03321156789</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Khác</v>
+      </c>
+      <c r="G8" t="str">
+        <v>2</v>
+      </c>
+      <c r="H8" t="str">
+        <v>2</v>
+      </c>
+      <c r="I8" t="str">
+        <v>2001</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Hậu Giang</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Huyện Châu Thành</v>
+      </c>
+      <c r="L8" t="str">
+        <v>Xã Đông Phước A</v>
+      </c>
+      <c r="M8" t="str">
+        <v>abc</v>
+      </c>
+      <c r="N8" t="str">
+        <v>Vui lòng nhập phần đứng sau '@'. 'anh1@' không hoàn chỉnh.</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>TT8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Ánh Dương Phạm</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Phạm Thị Ánh Dương</v>
+      </c>
+      <c r="D9" t="str">
+        <v>anh1@@</v>
+      </c>
+      <c r="E9" t="str">
+        <v>03321156790</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="G9" t="str">
+        <v>1</v>
+      </c>
+      <c r="H9" t="str">
+        <v>1</v>
+      </c>
+      <c r="I9" t="str">
+        <v>2002</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Hậu Giang</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Huyện Châu Thành</v>
+      </c>
+      <c r="L9" t="str">
+        <v>Xã Đông Phước A</v>
+      </c>
+      <c r="M9" t="str">
+        <v>abc</v>
+      </c>
+      <c r="N9" t="str">
+        <v>Phần đứng sau '@' không được chứa biểu tượng '@'.</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>TT9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Ánh Dương Phạm</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Phạm Thị Ánh Dương</v>
+      </c>
+      <c r="D10" t="str">
+        <v>anh1@gmail.</v>
+      </c>
+      <c r="E10" t="str">
+        <v>03321156789</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="G10" t="str">
+        <v>5</v>
+      </c>
+      <c r="H10" t="str">
+        <v>5</v>
+      </c>
+      <c r="I10" t="str">
+        <v>2003</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Hậu Giang</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Huyện Châu Thành</v>
+      </c>
+      <c r="L10" t="str">
+        <v>Xã Đông Phước A</v>
+      </c>
+      <c r="M10" t="str">
+        <v>abc</v>
+      </c>
+      <c r="N10" t="str">
+        <v>.' bị sử dụng sai vị trí trong 'gmail.'.</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>TT10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Ánh Dương Phạm</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Phạm Thị Ánh Dương</v>
+      </c>
+      <c r="D11" t="str">
+        <v>anh1@gmail.com</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="G11" t="str">
+        <v>1</v>
+      </c>
+      <c r="H11" t="str">
+        <v>1</v>
+      </c>
+      <c r="I11" t="str">
+        <v>2004</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Hậu Giang</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Huyện Châu Thành</v>
+      </c>
+      <c r="L11" t="str">
+        <v>Xã Đông Phước A</v>
+      </c>
+      <c r="M11" t="str">
+        <v>abc</v>
+      </c>
+      <c r="N11" t="str">
+        <v>Vui lòng điền vào trường này.</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>TT11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Ánh Dương Phạm</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Phạm Thị Ánh Dương</v>
+      </c>
+      <c r="D12" t="str">
+        <v>anh1@gmail.com</v>
+      </c>
+      <c r="E12" t="str">
+        <v>abcd</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="G12" t="str">
+        <v>1</v>
+      </c>
+      <c r="H12" t="str">
+        <v>1</v>
+      </c>
+      <c r="I12" t="str">
+        <v>2005</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Hậu Giang</v>
+      </c>
+      <c r="K12" t="str">
+        <v>Huyện Châu Thành</v>
+      </c>
+      <c r="L12" t="str">
+        <v>Xã Đông Phước A</v>
+      </c>
+      <c r="M12" t="str">
+        <v>abc</v>
+      </c>
+      <c r="N12" t="str">
+        <v>Số điện thoại không hợp lệ.</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>TT12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Ánh Dương Phạm</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Phạm Thị Ánh Dương</v>
+      </c>
+      <c r="D13" t="str">
+        <v>anh1@gmail.com</v>
+      </c>
+      <c r="E13" t="str">
+        <v>345</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="G13" t="str">
+        <v>2</v>
+      </c>
+      <c r="H13" t="str">
+        <v>2</v>
+      </c>
+      <c r="I13" t="str">
+        <v>2006</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Hậu Giang</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Huyện Châu Thành</v>
+      </c>
+      <c r="L13" t="str">
+        <v>Xã Đông Phước A</v>
+      </c>
+      <c r="M13" t="str">
+        <v>abc</v>
+      </c>
+      <c r="N13" t="str">
+        <v>Số điện thoại không hợp lệ.</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>TT13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Ánh Dương Phạm</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Phạm Thị Ánh Dương</v>
+      </c>
+      <c r="D14" t="str">
+        <v>anh1@gmail.com</v>
+      </c>
+      <c r="E14" t="str">
+        <v>0332115678987</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="G14" t="str">
+        <v>3</v>
+      </c>
+      <c r="H14" t="str">
+        <v>3</v>
+      </c>
+      <c r="I14" t="str">
+        <v>2007</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Hậu Giang</v>
+      </c>
+      <c r="K14" t="str">
+        <v>Huyện Châu Thành</v>
+      </c>
+      <c r="L14" t="str">
+        <v>Xã Đông Phước A</v>
+      </c>
+      <c r="M14" t="str">
+        <v>abc</v>
+      </c>
+      <c r="N14" t="str">
+        <v>Số điện thoại không hợp lệ.</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:N14"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Testcase</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Keyword</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Color</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Size</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Fullname</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Address</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Province</v>
+      </c>
+      <c r="I1" t="str">
+        <v>District</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Ward</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Expected</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>DH1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Giày Cao Gót MWC 4444</v>
+      </c>
+      <c r="C2" t="str">
+        <v>bạc</v>
+      </c>
+      <c r="D2" t="str">
+        <v>37</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Phạm Ánh Dương</v>
+      </c>
+      <c r="F2" t="str">
+        <v>0905123456</v>
+      </c>
+      <c r="G2" t="str">
+        <v>123 Lý Thường Kiệt</v>
+      </c>
+      <c r="H2" t="str">
+        <v>TP Hồ Chí Minh</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Quận 1</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Phường Bến Nghé</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Đặt hàng thành công!</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>DH2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Giày Cao Gót MWC 4444</v>
+      </c>
+      <c r="C3" t="str">
+        <v>đen</v>
+      </c>
+      <c r="D3" t="str">
+        <v>38</v>
+      </c>
+      <c r="F3" t="str">
+        <v>0905123456</v>
+      </c>
+      <c r="G3" t="str">
+        <v>123 ABC</v>
+      </c>
+      <c r="H3" t="str">
+        <v>TP Hồ Chí Minh</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Quận 1</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Phường Bến Nghé</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Bạn chưa nhập thông tin nhận hàng!</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>DH3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Giày Cao Gót MWC 4444</v>
+      </c>
+      <c r="C4" t="str">
+        <v>bạc</v>
+      </c>
+      <c r="D4" t="str">
+        <v>36</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Phạm Ánh Dương</v>
+      </c>
+      <c r="G4" t="str">
+        <v>123 ABC</v>
+      </c>
+      <c r="H4" t="str">
+        <v>TP Hồ Chí Minh</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Quận 1</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Phường Bến Nghé</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Bạn chưa nhập thông tin nhận hàng!</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>DH4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Giày Cao Gót MWC 4444</v>
+      </c>
+      <c r="C5" t="str">
+        <v>bạc</v>
+      </c>
+      <c r="D5" t="str">
+        <v>36</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Phạm Ánh Dương</v>
+      </c>
+      <c r="F5" t="str">
+        <v>0905123456</v>
+      </c>
+      <c r="H5" t="str">
+        <v>TP Hồ Chí Minh</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Quận 2</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Phường An Khánh</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Bạn chưa nhập thông tin nhận hàng!</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>DH5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Giày Cao Gót MWC 4444</v>
+      </c>
+      <c r="C6" t="str">
+        <v>bạc</v>
+      </c>
+      <c r="D6" t="str">
+        <v>36</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Phạm Ánh Dương</v>
+      </c>
+      <c r="F6" t="str">
+        <v>0905123456</v>
+      </c>
+      <c r="G6" t="str">
+        <v>123 ABC</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Chọn Tỉnh/Thành</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Chọn Quận/huyện</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Chọn Xã/Phường</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Bạn chưa nhập thông tin nhận hàng!</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>DH6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Giày Cao Gót MWC 4444</v>
+      </c>
+      <c r="C7" t="str">
+        <v>bạc</v>
+      </c>
+      <c r="D7" t="str">
+        <v>35</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Nguyễn A</v>
+      </c>
+      <c r="F7" t="str">
+        <v>3321156</v>
+      </c>
+      <c r="G7" t="str">
+        <v>456 DEF</v>
+      </c>
+      <c r="H7" t="str">
+        <v>TP Hồ Chí Minh</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Quận 10</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Phường 15</v>
+      </c>
+      <c r="K7" t="str">
+        <v>SĐT không đúng định dạng</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:K7"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/Framework_MWC_Testing/data/TestData.xlsx
+++ b/Framework_MWC_Testing/data/TestData.xlsx
@@ -551,7 +551,7 @@
         <v>DK1</v>
       </c>
       <c r="B2" t="str">
-        <v>QuynhAnh123</v>
+        <v>MaiQuynhAnh12</v>
       </c>
       <c r="C2" t="str">
         <v>0359694533</v>
@@ -563,7 +563,7 @@
         <v>Abcde12345</v>
       </c>
       <c r="F2" t="str">
-        <v>QuynhAnh123</v>
+        <v>MaiQuynhAnh12</v>
       </c>
     </row>
     <row r="3">
@@ -1343,7 +1343,7 @@
         <v>anh1@gmail.com</v>
       </c>
       <c r="F11" t="str">
-        <v>Nữ</v>
+        <v>Khác</v>
       </c>
       <c r="G11" t="str">
         <v>1</v>
@@ -1475,7 +1475,7 @@
         <v>0332115678987</v>
       </c>
       <c r="F14" t="str">
-        <v>Nữ</v>
+        <v>Nam</v>
       </c>
       <c r="G14" t="str">
         <v>3</v>

--- a/Framework_MWC_Testing/data/TestData.xlsx
+++ b/Framework_MWC_Testing/data/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5220" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="191">
   <si>
     <t>Testcase</t>
   </si>
@@ -76,6 +76,9 @@
     <t>DN6</t>
   </si>
   <si>
+    <t>DN7</t>
+  </si>
+  <si>
     <t>anh</t>
   </si>
   <si>
@@ -85,7 +88,7 @@
     <t>Tên đăng nhập hoặc mật khẩu không đúng!</t>
   </si>
   <si>
-    <t>DN7</t>
+    <t>DN8</t>
   </si>
   <si>
     <t>anhduong</t>
@@ -100,6 +103,12 @@
     <t>DK1</t>
   </si>
   <si>
+    <t>Nguyen_Pham_Nhat_Anh</t>
+  </si>
+  <si>
+    <t>0359694333</t>
+  </si>
+  <si>
     <t>Abcde12345</t>
   </si>
   <si>
@@ -172,16 +181,34 @@
     <t>user_demo_9</t>
   </si>
   <si>
+    <t>03452167891</t>
+  </si>
+  <si>
+    <t>DK11</t>
+  </si>
+  <si>
+    <t>user_demo_10</t>
+  </si>
+  <si>
     <t>123</t>
   </si>
   <si>
     <t>Mật khẩu phải lớn hơn 8 ký tự và nhỏ hơn 20 ký tự!</t>
   </si>
   <si>
-    <t>DK11</t>
-  </si>
-  <si>
-    <t>user_demo_10</t>
+    <t>DK12</t>
+  </si>
+  <si>
+    <t>user_demo_11</t>
+  </si>
+  <si>
+    <t>1234567890abcdefghiklmno</t>
+  </si>
+  <si>
+    <t>DK13</t>
+  </si>
+  <si>
+    <t>user_demo_12</t>
   </si>
   <si>
     <t>0912345679</t>
@@ -193,10 +220,10 @@
     <t>mật khẩu không giống nhau</t>
   </si>
   <si>
-    <t>DK12</t>
-  </si>
-  <si>
-    <t>035214679</t>
+    <t>DK14</t>
+  </si>
+  <si>
+    <t>0352146789</t>
   </si>
   <si>
     <t>123456789</t>
@@ -253,10 +280,25 @@
     <t>TK7</t>
   </si>
   <si>
+    <t>Bánh bao</t>
+  </si>
+  <si>
+    <t>TK8</t>
+  </si>
+  <si>
+    <t>TK9</t>
+  </si>
+  <si>
     <t>Giay!#$%</t>
   </si>
   <si>
-    <t>TK8</t>
+    <t>TK10</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>TK11</t>
   </si>
   <si>
     <t>Màu đen</t>
@@ -457,6 +499,15 @@
     <t>2007</t>
   </si>
   <si>
+    <t>TT14</t>
+  </si>
+  <si>
+    <t>!#$%^&amp;*()</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Color</t>
   </si>
   <si>
@@ -545,12 +596,6 @@
   </si>
   <si>
     <t>SĐT không đúng định dạng</t>
-  </si>
-  <si>
-    <t>LuongCaoKyDuyen</t>
-  </si>
-  <si>
-    <t>0359694333</t>
   </si>
 </sst>
 </file>
@@ -586,9 +631,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1016,50 +1060,61 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D8" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="6" max="6" width="43.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
@@ -1070,13 +1125,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1084,36 +1139,36 @@
     </row>
     <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>175</v>
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -1121,16 +1176,16 @@
     </row>
     <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -1138,16 +1193,16 @@
     </row>
     <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -1155,16 +1210,16 @@
     </row>
     <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -1172,155 +1227,195 @@
     </row>
     <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
         <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
         <v>56</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F1 A3:F13 A2 D2:E2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1331,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1339,103 +1434,133 @@
     </row>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C9" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1449,37 +1574,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="H1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="I1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="K1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="L1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="M1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="N1" t="s">
         <v>3</v>
@@ -1487,424 +1612,424 @@
     </row>
     <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="L2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="L3" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" t="s">
         <v>107</v>
       </c>
-      <c r="F4" t="s">
-        <v>93</v>
-      </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="H4" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="I4" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="K4" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="L4" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" t="s">
         <v>112</v>
       </c>
-      <c r="G5" t="s">
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" t="s">
         <v>113</v>
-      </c>
-      <c r="H5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" t="s">
-        <v>109</v>
-      </c>
-      <c r="J5" t="s">
-        <v>96</v>
-      </c>
-      <c r="K5" t="s">
-        <v>97</v>
-      </c>
-      <c r="L5" t="s">
-        <v>98</v>
-      </c>
-      <c r="M5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="G6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" t="s">
         <v>113</v>
-      </c>
-      <c r="H6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="G7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7" t="s">
+        <v>132</v>
+      </c>
+      <c r="N7" t="s">
         <v>113</v>
-      </c>
-      <c r="H7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L7" t="s">
-        <v>118</v>
-      </c>
-      <c r="N7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" t="s">
         <v>112</v>
       </c>
-      <c r="G8" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" t="s">
-        <v>109</v>
-      </c>
-      <c r="J8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" t="s">
-        <v>98</v>
-      </c>
       <c r="M8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="I9" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="H10" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
         <v>112</v>
       </c>
-      <c r="G11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" t="s">
-        <v>132</v>
-      </c>
-      <c r="J11" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" t="s">
-        <v>97</v>
-      </c>
-      <c r="L11" t="s">
-        <v>98</v>
-      </c>
       <c r="M11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N11" t="s">
         <v>14</v>
@@ -1912,140 +2037,184 @@
     </row>
     <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="H12" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="M12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N12" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="G13" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="H13" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="J13" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K13" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="M13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="G14" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" t="s">
         <v>142</v>
       </c>
-      <c r="H14" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" t="s">
-        <v>143</v>
-      </c>
-      <c r="J14" t="s">
-        <v>96</v>
-      </c>
-      <c r="K14" t="s">
-        <v>97</v>
-      </c>
-      <c r="L14" t="s">
-        <v>98</v>
-      </c>
-      <c r="M14" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" t="s">
-        <v>136</v>
+      <c r="I15" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" t="s">
+        <v>124</v>
+      </c>
+      <c r="L15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:N14" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:N15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2063,31 +2232,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="I1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="K1" t="s">
         <v>3</v>
@@ -2095,203 +2264,203 @@
     </row>
     <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="I2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="K2" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="H3" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="I3" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="K3" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="I4" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="J4" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="K4" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="I5" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="J5" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="K5" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" t="s">
         <v>165</v>
       </c>
-      <c r="B6" t="s">
-        <v>148</v>
-      </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="H6" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="I6" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="J6" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="K6" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" t="s">
         <v>166</v>
       </c>
-      <c r="B7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" t="s">
-        <v>149</v>
-      </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="G7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="H7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="I7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="J7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="K7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
